--- a/predict_model/predict_results/RandomForest/0_train_4nstep_denguefever_prediction_results_by_RandomForest_in_Bình Phước.xlsx
+++ b/predict_model/predict_results/RandomForest/0_train_4nstep_denguefever_prediction_results_by_RandomForest_in_Bình Phước.xlsx
@@ -488,7 +488,7 @@
         <v>2.8954424</v>
       </c>
       <c r="D2" t="n">
-        <v>7.462286621627752</v>
+        <v>7.356242185683284</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,16 +496,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G2" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H2" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I2" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="3">
@@ -521,7 +521,7 @@
         <v>1.5013405</v>
       </c>
       <c r="D3" t="n">
-        <v>6.541308355387871</v>
+        <v>5.366941631342035</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -529,16 +529,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G3" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H3" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I3" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="4">
@@ -554,7 +554,7 @@
         <v>1.8230563</v>
       </c>
       <c r="D4" t="n">
-        <v>5.230191914143639</v>
+        <v>5.226943337831838</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G4" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H4" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I4" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="5">
@@ -587,7 +587,7 @@
         <v>1.0723861</v>
       </c>
       <c r="D5" t="n">
-        <v>7.047315047789922</v>
+        <v>7.465589722528539</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G5" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H5" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I5" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="6">
@@ -620,7 +620,7 @@
         <v>2.6809651</v>
       </c>
       <c r="D6" t="n">
-        <v>14.45757929072565</v>
+        <v>16.48116448755499</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G6" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H6" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I6" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="7">
@@ -653,7 +653,7 @@
         <v>2.6809651</v>
       </c>
       <c r="D7" t="n">
-        <v>25.44633090212427</v>
+        <v>26.01404485733276</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -661,16 +661,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G7" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H7" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I7" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="8">
@@ -686,7 +686,7 @@
         <v>6.2198391</v>
       </c>
       <c r="D8" t="n">
-        <v>37.30158887083773</v>
+        <v>36.06984420212299</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -694,16 +694,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G8" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H8" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I8" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="9">
@@ -719,7 +719,7 @@
         <v>9.651474500000001</v>
       </c>
       <c r="D9" t="n">
-        <v>37.67764097005238</v>
+        <v>34.31616362456369</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -727,16 +727,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G9" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H9" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I9" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="10">
@@ -752,7 +752,7 @@
         <v>13.4048257</v>
       </c>
       <c r="D10" t="n">
-        <v>26.08989451635157</v>
+        <v>22.84691659404372</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G10" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H10" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I10" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="11">
@@ -785,7 +785,7 @@
         <v>15.3351206</v>
       </c>
       <c r="D11" t="n">
-        <v>22.56399723336808</v>
+        <v>19.37817351542631</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -793,16 +793,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G11" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H11" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I11" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="12">
@@ -818,7 +818,7 @@
         <v>5.8981233</v>
       </c>
       <c r="D12" t="n">
-        <v>18.23839768897868</v>
+        <v>16.37658346495492</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -826,16 +826,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G12" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H12" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I12" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="13">
@@ -851,7 +851,7 @@
         <v>4.3967828</v>
       </c>
       <c r="D13" t="n">
-        <v>20.7408511359753</v>
+        <v>11.08011167798655</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G13" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H13" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I13" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="14">
@@ -884,7 +884,7 @@
         <v>2.7530707</v>
       </c>
       <c r="D14" t="n">
-        <v>28.67035977174359</v>
+        <v>9.178872501615418</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -892,16 +892,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G14" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H14" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I14" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="15">
@@ -917,7 +917,7 @@
         <v>0.8470987</v>
       </c>
       <c r="D15" t="n">
-        <v>22.98342679110835</v>
+        <v>7.051375340671439</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -925,16 +925,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G15" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H15" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I15" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +950,7 @@
         <v>1.270648</v>
       </c>
       <c r="D16" t="n">
-        <v>27.03694996654205</v>
+        <v>6.698269400441311</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -958,16 +958,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G16" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H16" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I16" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="17">
@@ -983,7 +983,7 @@
         <v>1.58831</v>
       </c>
       <c r="D17" t="n">
-        <v>24.62633877997851</v>
+        <v>5.713877401761716</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -991,16 +991,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G17" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H17" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I17" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="18">
@@ -1016,7 +1016,7 @@
         <v>2.9648454</v>
       </c>
       <c r="D18" t="n">
-        <v>27.93454326486815</v>
+        <v>11.25991337430559</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1024,16 +1024,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G18" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H18" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I18" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="19">
@@ -1049,7 +1049,7 @@
         <v>5.8238035</v>
       </c>
       <c r="D19" t="n">
-        <v>32.19649241896862</v>
+        <v>15.85497380854155</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G19" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H19" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I19" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="20">
@@ -1082,7 +1082,7 @@
         <v>11.8593816</v>
       </c>
       <c r="D20" t="n">
-        <v>38.1574528660302</v>
+        <v>27.42119569540964</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1090,16 +1090,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G20" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H20" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I20" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="21">
@@ -1115,7 +1115,7 @@
         <v>17.8949598</v>
       </c>
       <c r="D21" t="n">
-        <v>34.63903813109416</v>
+        <v>31.57156343499342</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1123,16 +1123,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G21" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H21" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I21" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="22">
@@ -1148,7 +1148,7 @@
         <v>19.2714951</v>
       </c>
       <c r="D22" t="n">
-        <v>25.84381047104785</v>
+        <v>27.08077807222002</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1156,16 +1156,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G22" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H22" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I22" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="23">
@@ -1181,7 +1181,7 @@
         <v>24.3540873</v>
       </c>
       <c r="D23" t="n">
-        <v>20.13983443575196</v>
+        <v>17.85902672698383</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G23" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H23" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I23" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="24">
@@ -1214,7 +1214,7 @@
         <v>23.4011012</v>
       </c>
       <c r="D24" t="n">
-        <v>21.9506741967583</v>
+        <v>20.92304992827893</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1222,16 +1222,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G24" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H24" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I24" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="25">
@@ -1247,7 +1247,7 @@
         <v>24.5658619</v>
       </c>
       <c r="D25" t="n">
-        <v>21.51976510034741</v>
+        <v>16.77007482604261</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1255,16 +1255,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G25" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H25" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I25" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="26">
@@ -1280,7 +1280,7 @@
         <v>25.1986616</v>
       </c>
       <c r="D26" t="n">
-        <v>23.65309254940813</v>
+        <v>13.29262216500729</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G26" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H26" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I26" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="27">
@@ -1313,7 +1313,7 @@
         <v>10.560435</v>
       </c>
       <c r="D27" t="n">
-        <v>27.50557106158277</v>
+        <v>8.988084702431015</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1321,16 +1321,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G27" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H27" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I27" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="28">
@@ -1346,7 +1346,7 @@
         <v>9.8285236</v>
       </c>
       <c r="D28" t="n">
-        <v>23.58558822988302</v>
+        <v>8.428894569765291</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1354,16 +1354,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G28" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H28" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I28" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="29">
@@ -1379,7 +1379,7 @@
         <v>13.2789628</v>
       </c>
       <c r="D29" t="n">
-        <v>24.45029492847697</v>
+        <v>7.73480065246515</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1387,16 +1387,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G29" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H29" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I29" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="30">
@@ -1412,7 +1412,7 @@
         <v>10.97867</v>
       </c>
       <c r="D30" t="n">
-        <v>33.68424600842368</v>
+        <v>13.02895414965032</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1420,16 +1420,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G30" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H30" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I30" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="31">
@@ -1445,7 +1445,7 @@
         <v>29.3810121</v>
       </c>
       <c r="D31" t="n">
-        <v>33.24121652037478</v>
+        <v>13.01370616542593</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1453,16 +1453,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G31" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H31" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I31" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="32">
@@ -1478,7 +1478,7 @@
         <v>54.2659975</v>
       </c>
       <c r="D32" t="n">
-        <v>32.89546616740499</v>
+        <v>13.65187632945328</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1486,16 +1486,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G32" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H32" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I32" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="33">
@@ -1511,7 +1511,7 @@
         <v>79.0464241</v>
       </c>
       <c r="D33" t="n">
-        <v>31.210992352404</v>
+        <v>9.301931769690853</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1519,16 +1519,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G33" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H33" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I33" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="34">
@@ -1544,7 +1544,7 @@
         <v>58.5529067</v>
       </c>
       <c r="D34" t="n">
-        <v>33.49585291472702</v>
+        <v>10.70680094348271</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1552,16 +1552,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G34" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H34" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I34" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="35">
@@ -1577,7 +1577,7 @@
         <v>36.0727729</v>
       </c>
       <c r="D35" t="n">
-        <v>30.28692130405205</v>
+        <v>9.775914290441964</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1585,16 +1585,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G35" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H35" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I35" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="36">
@@ -1610,7 +1610,7 @@
         <v>23.0029276</v>
       </c>
       <c r="D36" t="n">
-        <v>24.38130506122734</v>
+        <v>8.783158681927608</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1618,16 +1618,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G36" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H36" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I36" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
     <row r="37">
@@ -1643,7 +1643,7 @@
         <v>12.5470514</v>
       </c>
       <c r="D37" t="n">
-        <v>22.27851309768689</v>
+        <v>8.764602373848366</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1651,16 +1651,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>18.62733548930174</v>
+        <v>19.46265226518275</v>
       </c>
       <c r="G37" t="n">
-        <v>15.24739520265406</v>
+        <v>13.22466860432604</v>
       </c>
       <c r="H37" t="n">
-        <v>3.779131373430266</v>
+        <v>1.879304294780727</v>
       </c>
       <c r="I37" t="n">
-        <v>346.977627431</v>
+        <v>378.7948331954232</v>
       </c>
     </row>
   </sheetData>
